--- a/laravel_user_stories_Zenzo.xlsx
+++ b/laravel_user_stories_Zenzo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\extra\XAMPP\htdocs\BAP-2\BAP-LarWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C060ED-33FB-4F22-BB6A-ED552DDAC3AD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D656A797-424D-476A-998A-6CBA3E669CF3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{96E4F204-A96B-B442-B776-0E7F469FE00D}"/>
   </bookViews>
@@ -1534,7 +1534,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>19</v>
@@ -1761,7 +1761,7 @@
     </row>
     <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>23</v>
@@ -3082,6 +3082,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F8D01017B67FFC40B6EAF835C0079E48" ma:contentTypeVersion="10" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c7194cc31030e2712d76c2006e0d75af">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="584c6f05-645a-45c2-af5b-a2298cf6e1b5" xmlns:ns3="5c2aeaab-3434-48d9-b2ba-99c708216bcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="420f24c0cdcfc5bd7329cba19e0bdf1c" ns2:_="" ns3:_="">
     <xsd:import namespace="584c6f05-645a-45c2-af5b-a2298cf6e1b5"/>
@@ -3284,22 +3299,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C4C429B-C437-4A37-B7CA-137886FFB6B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="5c2aeaab-3434-48d9-b2ba-99c708216bcd"/>
+    <ds:schemaRef ds:uri="584c6f05-645a-45c2-af5b-a2298cf6e1b5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2490BF6-BAD1-45FA-8E2E-1DC0E56639F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C62A3BA8-675C-43E7-9E30-618B42A3DB6A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3316,29 +3341,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2490BF6-BAD1-45FA-8E2E-1DC0E56639F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C4C429B-C437-4A37-B7CA-137886FFB6B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="5c2aeaab-3434-48d9-b2ba-99c708216bcd"/>
-    <ds:schemaRef ds:uri="584c6f05-645a-45c2-af5b-a2298cf6e1b5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/laravel_user_stories_Zenzo.xlsx
+++ b/laravel_user_stories_Zenzo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\extra\XAMPP\htdocs\BAP-2\BAP-LarWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D656A797-424D-476A-998A-6CBA3E669CF3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7ABEA8-16BE-42C0-AC85-8AA2C723F129}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{96E4F204-A96B-B442-B776-0E7F469FE00D}"/>
   </bookViews>
@@ -1534,7 +1534,7 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1692,7 +1692,7 @@
     </row>
     <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>20</v>
@@ -1715,7 +1715,7 @@
     </row>
     <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>21</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>22</v>
@@ -1784,7 +1784,7 @@
     </row>
     <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>24</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>25</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>26</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>27</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>28</v>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>29</v>
@@ -1922,7 +1922,7 @@
     </row>
     <row r="17" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>30</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="18" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>128</v>
@@ -3082,21 +3082,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F8D01017B67FFC40B6EAF835C0079E48" ma:contentTypeVersion="10" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c7194cc31030e2712d76c2006e0d75af">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="584c6f05-645a-45c2-af5b-a2298cf6e1b5" xmlns:ns3="5c2aeaab-3434-48d9-b2ba-99c708216bcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="420f24c0cdcfc5bd7329cba19e0bdf1c" ns2:_="" ns3:_="">
     <xsd:import namespace="584c6f05-645a-45c2-af5b-a2298cf6e1b5"/>
@@ -3299,32 +3284,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C4C429B-C437-4A37-B7CA-137886FFB6B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="5c2aeaab-3434-48d9-b2ba-99c708216bcd"/>
-    <ds:schemaRef ds:uri="584c6f05-645a-45c2-af5b-a2298cf6e1b5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2490BF6-BAD1-45FA-8E2E-1DC0E56639F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C62A3BA8-675C-43E7-9E30-618B42A3DB6A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3341,4 +3316,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2490BF6-BAD1-45FA-8E2E-1DC0E56639F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C4C429B-C437-4A37-B7CA-137886FFB6B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="5c2aeaab-3434-48d9-b2ba-99c708216bcd"/>
+    <ds:schemaRef ds:uri="584c6f05-645a-45c2-af5b-a2298cf6e1b5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/laravel_user_stories_Zenzo.xlsx
+++ b/laravel_user_stories_Zenzo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\extra\XAMPP\htdocs\BAP-2\BAP-LarWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7ABEA8-16BE-42C0-AC85-8AA2C723F129}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C552DCBC-6A40-4728-878D-C7B64F08AE17}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{96E4F204-A96B-B442-B776-0E7F469FE00D}"/>
   </bookViews>
@@ -1533,8 +1533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F8C07C-95E6-5F45-AA16-00A7B9F9E844}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="94" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1968,7 +1968,7 @@
     </row>
     <row r="19" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>31</v>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="20" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>32</v>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>33</v>
@@ -3285,18 +3285,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3319,14 +3319,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2490BF6-BAD1-45FA-8E2E-1DC0E56639F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C4C429B-C437-4A37-B7CA-137886FFB6B3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -3341,4 +3333,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2490BF6-BAD1-45FA-8E2E-1DC0E56639F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/laravel_user_stories_Zenzo.xlsx
+++ b/laravel_user_stories_Zenzo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\extra\XAMPP\htdocs\BAP-2\BAP-LarWeb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C552DCBC-6A40-4728-878D-C7B64F08AE17}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF92827-E253-4B0F-91A0-0783FB38F16C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{96E4F204-A96B-B442-B776-0E7F469FE00D}"/>
+    <workbookView xWindow="8190" yWindow="2550" windowWidth="28800" windowHeight="15390" activeTab="1" xr2:uid="{96E4F204-A96B-B442-B776-0E7F469FE00D}"/>
   </bookViews>
   <sheets>
     <sheet name="Basis" sheetId="1" r:id="rId1"/>
@@ -1533,23 +1533,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F8C07C-95E6-5F45-AA16-00A7B9F9E844}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="94" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.296875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="14.69921875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="32.796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.25" style="1" customWidth="1"/>
+    <col min="2" max="3" width="14.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="32.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="99.69921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="77.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="43.69921875" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="10.796875" style="1"/>
+    <col min="6" max="6" width="99.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="77.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="43.75" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>39</v>
       </c>
@@ -1690,9 +1690,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>20</v>
@@ -1713,9 +1713,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>21</v>
@@ -1736,7 +1736,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -1805,9 +1805,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>25</v>
@@ -1828,7 +1828,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
@@ -1920,9 +1920,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>30</v>
@@ -1943,7 +1943,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
@@ -1966,9 +1966,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>31</v>
@@ -1989,9 +1989,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>32</v>
@@ -2012,9 +2012,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>33</v>
@@ -2035,7 +2035,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>37</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>37</v>
       </c>
@@ -2081,9 +2081,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>63</v>
@@ -2104,9 +2104,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>80</v>
@@ -2127,9 +2127,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>81</v>
@@ -2150,9 +2150,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>82</v>
@@ -2173,9 +2173,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>85</v>
@@ -2196,9 +2196,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>86</v>
@@ -2219,9 +2219,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>100</v>
@@ -2242,7 +2242,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>37</v>
       </c>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>37</v>
       </c>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>37</v>
       </c>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>37</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>37</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -2392,7 +2392,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="10" t="s">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -2605,23 +2605,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3217D4F-5AF1-9F44-A8EF-7F34D2E586CC}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" activeCellId="1" sqref="B2 B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.69921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="90.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="68.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="43.69921875" style="8" customWidth="1"/>
-    <col min="8" max="16384" width="10.796875" style="1"/>
+    <col min="7" max="7" width="43.75" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
@@ -2644,9 +2644,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>170</v>
@@ -2664,7 +2664,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>37</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>37</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
@@ -2844,9 +2844,9 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>180</v>
@@ -2864,7 +2864,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
@@ -2904,21 +2904,21 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -2927,31 +2927,31 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -2997,13 +2997,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3057,14 +3057,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="48.19921875" customWidth="1"/>
+    <col min="2" max="2" width="48.25" customWidth="1"/>
     <col min="3" max="3" width="83" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -3082,6 +3082,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F8D01017B67FFC40B6EAF835C0079E48" ma:contentTypeVersion="10" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c7194cc31030e2712d76c2006e0d75af">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="584c6f05-645a-45c2-af5b-a2298cf6e1b5" xmlns:ns3="5c2aeaab-3434-48d9-b2ba-99c708216bcd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="420f24c0cdcfc5bd7329cba19e0bdf1c" ns2:_="" ns3:_="">
     <xsd:import namespace="584c6f05-645a-45c2-af5b-a2298cf6e1b5"/>
@@ -3284,36 +3299,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C62A3BA8-675C-43E7-9E30-618B42A3DB6A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2490BF6-BAD1-45FA-8E2E-1DC0E56639F9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="584c6f05-645a-45c2-af5b-a2298cf6e1b5"/>
-    <ds:schemaRef ds:uri="5c2aeaab-3434-48d9-b2ba-99c708216bcd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3336,9 +3325,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2490BF6-BAD1-45FA-8E2E-1DC0E56639F9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C62A3BA8-675C-43E7-9E30-618B42A3DB6A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="584c6f05-645a-45c2-af5b-a2298cf6e1b5"/>
+    <ds:schemaRef ds:uri="5c2aeaab-3434-48d9-b2ba-99c708216bcd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>